--- a/static/excel/exported_questions.xlsx
+++ b/static/excel/exported_questions.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,15 +487,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="2.6" customWidth="1" min="1" max="1"/>
-    <col width="65" customWidth="1" min="2" max="2"/>
-    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="11.7" customWidth="1" min="2" max="2"/>
+    <col width="11.7" customWidth="1" min="3" max="3"/>
     <col width="33.8" customWidth="1" min="4" max="4"/>
-    <col width="65" customWidth="1" min="5" max="5"/>
+    <col width="14.3" customWidth="1" min="5" max="5"/>
     <col width="10.4" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
-    <col width="23.4" customWidth="1" min="8" max="8"/>
+    <col width="22.1" customWidth="1" min="8" max="8"/>
     <col width="23.4" customWidth="1" min="9" max="9"/>
-    <col width="33.8" customWidth="1" min="10" max="10"/>
+    <col width="14.3" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -552,7 +552,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
@@ -561,306 +561,26 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>User ID or Anonymous</t>
+          <t>Anonymous</t>
         </is>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45351.64997635561</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>FFFFFFFFF</t>
-        </is>
-      </c>
+        <v>45363.51171670474</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="4" t="n">
-        <v>45354.96914044086</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>tttttttt</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>User ID or Anonymous</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>45351.65007579793</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>ffffffff</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="4" t="n">
-        <v>45354.96745538255</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>ttttttttttttttt</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>User ID or Anonymous</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>45351.65993416063</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>ffffffffffffffffff</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="4" t="n">
-        <v>45354.98411467873</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Die neu geplante Straße führt durch einen Wald. Werden die gefällten Bäume an einem anderen Ort wieder gepflanzt?</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Anonymous</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>45355.02685486691</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guten Tag, sie werden in unserem städtischen Wald wieder gepflanzt.
-</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>52.21714673286122</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>11.08185280983988</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>45355.02717555658</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wäre es nicht sinnvoll, hier einen Kreisverkehr zu bauen, für die höhere Sicherheit?
-</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Anonymous</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>45355.02789607894</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>52.2171183453527</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>11.07678754234032</v>
-      </c>
-      <c r="J6" s="3" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Die neue Umfahrung wird die zwei getrennten Teile der Autobahn verbinden. Wird die neue Straße auch nach Autobahnstandards gebaut?
-</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Anonymous</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>45355.02910100874</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>52.21452134887534</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>11.09470944546148</v>
-      </c>
-      <c r="J7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Die neue Umfahrung wird die zwei getrennten Teile der Autobahn verbinden. Wird die neue Straße auch nach Autobahnstandards gebaut?
-</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Anonymous</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>45355.02923984756</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>52.21893005628696</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>11.05996541292599</v>
-      </c>
-      <c r="J8" s="3" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Was ändert sich beim Busdienst, nachdem die neue Straße gebaut wurde?
-</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Anonymous</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>45355.03067273783</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Guten Tag, der alte Busdienst bleibt unverändert. Dank der neuen Straße wird es eine Ergänzung von Expressbussen zu Stoßzeiten geben.</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>52.21519542135889</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>11.07209530647722</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>45355.03078450883</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Müssen wir befürchten, dass die neue Straße Lärm in unseren Stadtteil bringt?
-</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Anonymous</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>45355.03195936431</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>52.21569142471986</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>11.06810254535306</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr"/>
+      <c r="H2" s="3" t="n">
+        <v>48.40949116103341</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>15.61419010162354</v>
+      </c>
+      <c r="J2" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/excel/exported_questions.xlsx
+++ b/static/excel/exported_questions.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,15 +487,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="2.6" customWidth="1" min="1" max="1"/>
-    <col width="11.7" customWidth="1" min="2" max="2"/>
+    <col width="65" customWidth="1" min="2" max="2"/>
     <col width="11.7" customWidth="1" min="3" max="3"/>
     <col width="33.8" customWidth="1" min="4" max="4"/>
-    <col width="14.3" customWidth="1" min="5" max="5"/>
+    <col width="65" customWidth="1" min="5" max="5"/>
     <col width="10.4" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
-    <col width="22.1" customWidth="1" min="8" max="8"/>
+    <col width="23.4" customWidth="1" min="8" max="8"/>
     <col width="23.4" customWidth="1" min="9" max="9"/>
-    <col width="14.3" customWidth="1" min="10" max="10"/>
+    <col width="33.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -581,6 +581,239 @@
         <v>15.61419010162354</v>
       </c>
       <c r="J2" s="3" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Guten Tag, wäre es möglich, an dieser Stelle mehr Fahrradständer zu bauen?</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>45368.52237052044</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Guten Tag,
+ein großer Teil der Revitalisierung von Mitterau wird Investitionen in die Fahrradinfrastruktur sein. Seien Sie versichert, es wird mehr Fahrradständer geben, auch hier.</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>48.40847985163349</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>15.6108695268631</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>45368.53126474172</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Ein Radweg entlang des Flusses wäre hier wirklich schön. Ist so etwas in Planung?</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>45368.5233795144</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>48.40992559058613</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>15.61216771602631</v>
+      </c>
+      <c r="J4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hallo, ist es möglich, hier über dem Zebrastreifen ein gelbes Blinklicht zu installieren? Für die Sicherheit der Kinder.
+</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>45368.52460240827</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>48.40830180212186</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>15.61229646205902</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guten Tag, es gibt viel Verkehr an dieser Kreuzung. Ist es möglich, hier eine Ampel zu installieren, um die Situation sicherer zu machen?
+</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>45368.52508455366</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>48.40929887135795</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>15.61390042304993</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Wäre es möglich, hier neben dem Kindergarten einen Wasserbrunnen zu installieren?</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>45368.52558700214</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>48.40764657455099</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>15.61140060424805</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Wäre es möglich, eine Radspur entlang der Missongasse zu bauen?</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>45368.52631921026</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>48.40916355596527</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>15.61070859432221</v>
+      </c>
+      <c r="J8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Bitte machen Sie das Parken nur für Anwohner.</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>45368.526747887</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>48.40706256025275</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>15.61009168624878</v>
+      </c>
+      <c r="J9" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
